--- a/transportadoras/modelo.xlsx
+++ b/transportadoras/modelo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7A220E-780C-405E-9C93-313541EC222E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C3704-2D85-4878-ACA2-38D23E12F3EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,12 @@
     <sheet name="Output - Abrangência" sheetId="4" r:id="rId1"/>
     <sheet name="Output Custo" sheetId="2" r:id="rId2"/>
     <sheet name="Região" sheetId="3" r:id="rId3"/>
+    <sheet name="Intelipost" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Output - Abrangência'!$A$1:$G$8138</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="90">
   <si>
     <t>Chave</t>
   </si>
@@ -206,12 +207,105 @@
   <si>
     <t>MARECHAL THAUMATURGO</t>
   </si>
+  <si>
+    <t>Método de Envio</t>
+  </si>
+  <si>
+    <t>TABELA DE FRETE POR PESO</t>
+  </si>
+  <si>
+    <t>TABELA DE FRETE POR COMPARAÇÃO</t>
+  </si>
+  <si>
+    <t>FAIXAS DE PESO (KG)</t>
+  </si>
+  <si>
+    <t>DENTRO DA FAIXA</t>
+  </si>
+  <si>
+    <t>ICMS Incluso?(S/N)</t>
+  </si>
+  <si>
+    <t>CEPI</t>
+  </si>
+  <si>
+    <t>CEPF</t>
+  </si>
+  <si>
+    <t>PRAZO(DIAS ÚTEIS)</t>
+  </si>
+  <si>
+    <t>FRETE TOTAL MÍNIMO</t>
+  </si>
+  <si>
+    <t>VALOR EXCEDENTE</t>
+  </si>
+  <si>
+    <t>FRETE VALOR SOBRE A NOTA(%)</t>
+  </si>
+  <si>
+    <t>FRETE MÍNIMO</t>
+  </si>
+  <si>
+    <t>% SOBRE A NF</t>
+  </si>
+  <si>
+    <t>VALOR POR KG</t>
+  </si>
+  <si>
+    <t>GRIS MÍNIMO</t>
+  </si>
+  <si>
+    <t>GRIS MÁXIMO</t>
+  </si>
+  <si>
+    <t>GRIS(%)</t>
+  </si>
+  <si>
+    <t>FAIXA INICIAL DE GRIS</t>
+  </si>
+  <si>
+    <t>FAIXA FINAL DE GRIS</t>
+  </si>
+  <si>
+    <t>FAIXA VIGENTE SOBRE(NF ou Peso)</t>
+  </si>
+  <si>
+    <t>VALOR DE FAIXA SOMA COM VALOR GERAL?(S/N)</t>
+  </si>
+  <si>
+    <t>VALOR SOMADO VIGENTE SOBRE FAIXA OU VALOR COMPLETO(F/VC)</t>
+  </si>
+  <si>
+    <t>TAS VALOR FIXO</t>
+  </si>
+  <si>
+    <t>FAIXA INICIAL DE TAS</t>
+  </si>
+  <si>
+    <t>FAIXA FINAL DE TAS</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CUBAGEM(kg/m³)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +321,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +342,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -250,11 +399,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +558,101 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,11 +936,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460ED239-EF65-4929-9BF7-8DA0D9E71972}">
   <dimension ref="A1:I8138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -564,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -25285,12 +25676,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00401B2-0D6A-4C48-BC64-834BF4D004EF}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -25301,8 +25695,8 @@
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -25326,9 +25720,48 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="K1">
+        <v>0.3</v>
+      </c>
+      <c r="L1">
+        <v>0.5</v>
+      </c>
+      <c r="M1">
+        <v>0.75</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <v>7</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
+        <v>9</v>
+      </c>
+      <c r="W1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
         <f>B2&amp;D2&amp;F2</f>
         <v>JadlogDFCapital</v>
       </c>
@@ -25354,8 +25787,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f t="shared" ref="A3:A55" si="0">B3&amp;D3&amp;F3</f>
         <v>JadlogGOCapital</v>
       </c>
@@ -25381,8 +25814,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMSCapital</v>
       </c>
@@ -25408,8 +25841,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMTCapital</v>
       </c>
@@ -25435,8 +25868,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogALCapital</v>
       </c>
@@ -25462,8 +25895,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogBACapital</v>
       </c>
@@ -25489,8 +25922,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogCECapital</v>
       </c>
@@ -25516,8 +25949,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMACapital</v>
       </c>
@@ -25543,8 +25976,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPBCapital</v>
       </c>
@@ -25570,8 +26003,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPECapital</v>
       </c>
@@ -25597,8 +26030,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPICapital</v>
       </c>
@@ -25624,8 +26057,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRNCapital</v>
       </c>
@@ -25651,8 +26084,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogSECapital</v>
       </c>
@@ -25678,8 +26111,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogACCapital</v>
       </c>
@@ -25705,8 +26138,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogAMCapital</v>
       </c>
@@ -25733,7 +26166,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogAPCapital</v>
       </c>
@@ -25760,7 +26193,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPACapital</v>
       </c>
@@ -25787,7 +26220,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogROCapital</v>
       </c>
@@ -25814,7 +26247,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+      <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRRCapital</v>
       </c>
@@ -25841,7 +26274,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+      <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogTOCapital</v>
       </c>
@@ -25868,7 +26301,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogESCapital</v>
       </c>
@@ -25895,7 +26328,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+      <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMGCapital</v>
       </c>
@@ -25922,7 +26355,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+      <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRJCapital</v>
       </c>
@@ -25949,7 +26382,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+      <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogSPCapital</v>
       </c>
@@ -25976,7 +26409,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+      <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPRCapital</v>
       </c>
@@ -26003,7 +26436,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+      <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRSCapital</v>
       </c>
@@ -26030,7 +26463,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+      <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogSCCapital</v>
       </c>
@@ -26057,7 +26490,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+      <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogDFInterior</v>
       </c>
@@ -26084,7 +26517,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+      <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogGOInterior</v>
       </c>
@@ -26111,7 +26544,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+      <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMSInterior</v>
       </c>
@@ -26138,7 +26571,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+      <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMTInterior</v>
       </c>
@@ -26165,7 +26598,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+      <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogALInterior</v>
       </c>
@@ -26192,7 +26625,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+      <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogBAInterior</v>
       </c>
@@ -26219,7 +26652,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+      <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogCEInterior</v>
       </c>
@@ -26246,7 +26679,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+      <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMAInterior</v>
       </c>
@@ -26273,7 +26706,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPBInterior</v>
       </c>
@@ -26300,7 +26733,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+      <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPEInterior</v>
       </c>
@@ -26327,7 +26760,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+      <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPIInterior</v>
       </c>
@@ -26354,7 +26787,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+      <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRNInterior</v>
       </c>
@@ -26381,7 +26814,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+      <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogSEInterior</v>
       </c>
@@ -26408,7 +26841,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+      <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogACInterior</v>
       </c>
@@ -26435,7 +26868,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+      <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogAMInterior</v>
       </c>
@@ -26462,7 +26895,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+      <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogAPInterior</v>
       </c>
@@ -26489,7 +26922,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+      <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPAInterior</v>
       </c>
@@ -26516,7 +26949,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+      <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogROInterior</v>
       </c>
@@ -26543,7 +26976,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+      <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRRInterior</v>
       </c>
@@ -26570,7 +27003,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+      <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogTOInterior</v>
       </c>
@@ -26597,7 +27030,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+      <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogESInterior</v>
       </c>
@@ -26624,7 +27057,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+      <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogMGInterior</v>
       </c>
@@ -26651,7 +27084,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+      <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRJInterior</v>
       </c>
@@ -26678,7 +27111,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+      <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogSPInterior</v>
       </c>
@@ -26705,7 +27138,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+      <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogPRInterior</v>
       </c>
@@ -26732,7 +27165,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+      <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogRSInterior</v>
       </c>
@@ -26759,7 +27192,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+      <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>JadlogSCInterior</v>
       </c>
@@ -26794,7 +27227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CB7A5C-7500-4855-B9AB-C6CB96B7FAC9}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27052,4 +27487,590 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41921756-68BC-4752-BAD3-F3BCC9F92918}">
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AI8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="Z3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22"/>
+      <c r="AG3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="25"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG4" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="36">
+        <v>29000000</v>
+      </c>
+      <c r="D5" s="36">
+        <v>29099999</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="37">
+        <v>7.32</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI5" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C6" s="36">
+        <v>29100000</v>
+      </c>
+      <c r="D6" s="36">
+        <v>29129999</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI6" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="36">
+        <v>29140000</v>
+      </c>
+      <c r="D7" s="36">
+        <v>29159999</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI7" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="36">
+        <v>29160000</v>
+      </c>
+      <c r="D8" s="36">
+        <v>29184999</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI8" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AG3:AI3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>